--- a/data/raw/PSY_adults.xlsx
+++ b/data/raw/PSY_adults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\Git_META\META\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B41D9-D469-4A18-8A28-9B430E45D7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE17D74-B710-409B-9713-2D1341E02982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="108">
   <si>
     <t>ADHD</t>
   </si>
@@ -139,9 +139,6 @@
     <t>-0.018</t>
   </si>
   <si>
-    <t>-0.050</t>
-  </si>
-  <si>
     <t>-0.005</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>-0.047</t>
   </si>
   <si>
-    <t>-0.022</t>
-  </si>
-  <si>
     <t>0.046</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
   </si>
   <si>
     <t>0.037</t>
-  </si>
-  <si>
-    <t>-0.080</t>
   </si>
   <si>
     <t>0.05</t>
@@ -301,9 +292,6 @@
     <t>-0.43</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>0.16</t>
   </si>
   <si>
@@ -337,82 +325,25 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>0.110</t>
+    <t>0.06</t>
   </si>
   <si>
-    <t>0.078</t>
+    <t>-0.24</t>
   </si>
   <si>
-    <t>0.083</t>
+    <t>0.0</t>
   </si>
   <si>
-    <t>-0.185</t>
+    <t>0.08</t>
   </si>
   <si>
-    <t>-0.273</t>
+    <t>0.04</t>
   </si>
   <si>
-    <t>-0.154</t>
+    <t>0.09</t>
   </si>
   <si>
-    <t>-0.247</t>
-  </si>
-  <si>
-    <t>0.186</t>
-  </si>
-  <si>
-    <t>-0.157</t>
-  </si>
-  <si>
-    <t>-0.069</t>
-  </si>
-  <si>
-    <t>0.213</t>
-  </si>
-  <si>
-    <t>-0.107</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>0.146</t>
-  </si>
-  <si>
-    <t>-0.105</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>-0.085</t>
-  </si>
-  <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t>0.273</t>
-  </si>
-  <si>
-    <t>-0.090</t>
-  </si>
-  <si>
-    <t>-0.057</t>
-  </si>
-  <si>
-    <t>-0.128</t>
-  </si>
-  <si>
-    <t>-0.101</t>
-  </si>
-  <si>
-    <t>0.028</t>
+    <t>0.11</t>
   </si>
 </sst>
 </file>
@@ -721,8 +652,8 @@
   </sheetPr>
   <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -779,7 +710,7 @@
         <v>-0.7379</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6">
         <v>-0.20699999999999999</v>
@@ -823,7 +754,7 @@
         <v>-6.5290000000000001E-2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D3" s="6">
         <v>-9.5000000000000001E-2</v>
@@ -867,7 +798,7 @@
         <v>-0.75961999999999996</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6">
         <v>-0.26600000000000001</v>
@@ -911,7 +842,7 @@
         <v>-0.66256999999999999</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6">
         <v>-5.6000000000000001E-2</v>
@@ -955,7 +886,7 @@
         <v>5.9735999999999997E-2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D6" s="6">
         <v>-3.5999999999999997E-2</v>
@@ -999,7 +930,7 @@
         <v>-0.53779999999999994</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6">
         <v>-0.28799999999999998</v>
@@ -1043,7 +974,7 @@
         <v>-0.89488999999999996</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6">
         <v>-0.26500000000000001</v>
@@ -1087,7 +1018,7 @@
         <v>-0.53652</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6">
         <v>-0.25</v>
@@ -1131,7 +1062,7 @@
         <v>-0.62012</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D10" s="6">
         <v>-0.13200000000000001</v>
@@ -1175,7 +1106,7 @@
         <v>-0.74733000000000005</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="D11" s="6">
         <v>-0.156</v>
@@ -1219,7 +1150,7 @@
         <v>-0.38435000000000002</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6">
         <v>-0.216</v>
@@ -1263,7 +1194,7 @@
         <v>-0.51770000000000005</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6">
         <v>-0.20799999999999999</v>
@@ -1307,7 +1238,7 @@
         <v>-0.31744</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D14" s="6">
         <v>-0.19900000000000001</v>
@@ -1351,7 +1282,7 @@
         <v>-0.63039000000000001</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6">
         <v>-0.252</v>
@@ -1395,7 +1326,7 @@
         <v>-0.18193999999999999</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6">
         <v>-2.1999999999999999E-2</v>
@@ -1410,7 +1341,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="6">
         <v>-0.27700000000000002</v>
@@ -1439,13 +1370,13 @@
         <v>-0.81562000000000001</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6">
         <v>-0.13700000000000001</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6">
         <v>-3.0000000000000001E-3</v>
@@ -1483,13 +1414,13 @@
         <v>-0.67005999999999999</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6">
         <v>-0.29299999999999998</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="6">
         <v>-6.3E-2</v>
@@ -1498,7 +1429,7 @@
         <v>-8.3000000000000004E-2</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="6">
         <v>-0.375</v>
@@ -1527,13 +1458,13 @@
         <v>-0.52405000000000002</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D19" s="6">
         <v>-0.246</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="6">
         <v>-7.2999999999999995E-2</v>
@@ -1542,7 +1473,7 @@
         <v>-0.05</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" s="6">
         <v>-0.31900000000000001</v>
@@ -1571,7 +1502,7 @@
         <v>-0.52020999999999995</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D20" s="6">
         <v>-0.27</v>
@@ -1586,7 +1517,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" s="6">
         <v>-0.34100000000000003</v>
@@ -1615,13 +1546,13 @@
         <v>-0.47924</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6">
         <v>0.02</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="6">
         <v>9.4E-2</v>
@@ -1630,7 +1561,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="6">
         <v>-7.6999999999999999E-2</v>
@@ -1659,7 +1590,7 @@
         <v>-0.57374000000000003</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D22" s="6">
         <v>-9.6000000000000002E-2</v>
@@ -1703,13 +1634,13 @@
         <v>-0.69088000000000005</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D23" s="6">
         <v>-0.112</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="6">
         <v>-9.9000000000000005E-2</v>
@@ -1747,7 +1678,7 @@
         <v>-0.56516999999999995</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D24" s="6">
         <v>-0.21099999999999999</v>
@@ -1791,13 +1722,13 @@
         <v>-0.87892000000000003</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D25" s="6">
         <v>-0.20899999999999999</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="6">
         <v>-2.4E-2</v>
@@ -1806,7 +1737,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="6">
         <v>-0.30099999999999999</v>
@@ -1835,13 +1766,13 @@
         <v>-8.2559999999999995E-2</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D26" s="6">
         <v>-0.153</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="6">
         <v>-0.13</v>
@@ -1879,7 +1810,7 @@
         <v>-0.53159999999999996</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D27" s="6">
         <v>-0.27600000000000002</v>
@@ -1894,7 +1825,7 @@
         <v>-9.5000000000000001E-2</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="6">
         <v>-0.36199999999999999</v>
@@ -1923,13 +1854,13 @@
         <v>-0.85841000000000001</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D28" s="6">
         <v>-0.23300000000000001</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="6">
         <v>-6.6000000000000003E-2</v>
@@ -1938,7 +1869,7 @@
         <v>-6.9000000000000006E-2</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I28" s="6">
         <v>-0.42499999999999999</v>
@@ -1967,7 +1898,7 @@
         <v>-0.89678999999999998</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D29" s="6">
         <v>-0.161</v>
@@ -1982,7 +1913,7 @@
         <v>-6.2E-2</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="6">
         <v>-0.20899999999999999</v>
@@ -2011,7 +1942,7 @@
         <v>-0.49138999999999999</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="D30" s="6">
         <v>-0.20899999999999999</v>
@@ -2026,7 +1957,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="6">
         <v>-0.44</v>
@@ -2055,13 +1986,13 @@
         <v>-0.81250999999999995</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D31" s="6">
         <v>-0.253</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="6">
         <v>-4.4999999999999998E-2</v>
@@ -2070,7 +2001,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="6">
         <v>-0.39500000000000002</v>
@@ -2099,13 +2030,13 @@
         <v>-0.30835000000000001</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D32" s="6">
         <v>-0.11799999999999999</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="6">
         <v>-1.0999999999999999E-2</v>
@@ -2143,13 +2074,13 @@
         <v>0.110112</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D33" s="6">
         <v>-0.11600000000000001</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" s="6">
         <v>1.2E-2</v>
@@ -2187,13 +2118,13 @@
         <v>-0.18764</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D34" s="6">
         <v>-0.12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" s="6">
         <v>-3.5000000000000003E-2</v>
@@ -2231,7 +2162,7 @@
         <v>-0.23552000000000001</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D35" s="6">
         <v>-0.19800000000000001</v>
@@ -2275,7 +2206,7 @@
         <v>-0.64936000000000005</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D36" s="6">
         <v>-0.125</v>
@@ -2290,7 +2221,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I36" s="6">
         <v>-0.35499999999999998</v>
@@ -2319,13 +2250,13 @@
         <v>-0.1439</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D37" s="6">
         <v>-6.3E-2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37" s="6">
         <v>-0.08</v>
@@ -2363,7 +2294,7 @@
         <v>-0.66359000000000001</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D38" s="6">
         <v>-0.20799999999999999</v>
@@ -2378,7 +2309,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I38" s="6">
         <v>-0.317</v>
@@ -2407,13 +2338,13 @@
         <v>-0.43959999999999999</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D39" s="6">
         <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="6">
         <v>4.9000000000000002E-2</v>
@@ -2422,7 +2353,7 @@
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I39" s="6">
         <v>-0.22600000000000001</v>
@@ -2451,13 +2382,13 @@
         <v>4.1230000000000003E-2</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D40" s="6">
         <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F40" s="6">
         <v>-5.5E-2</v>
@@ -2466,7 +2397,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I40" s="6">
         <v>-0.15</v>
@@ -2495,13 +2426,13 @@
         <v>-0.50129999999999997</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D41" s="6">
         <v>-0.26700000000000002</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="6">
         <v>-0.11600000000000001</v>
@@ -2510,7 +2441,7 @@
         <v>-8.8999999999999996E-2</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I41" s="6">
         <v>-0.53600000000000003</v>
@@ -2539,13 +2470,13 @@
         <v>-0.88424999999999998</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D42" s="6">
         <v>-0.25800000000000001</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="6">
         <v>-4.1000000000000002E-2</v>
@@ -2554,7 +2485,7 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I42" s="6">
         <v>-0.34799999999999998</v>
@@ -2583,13 +2514,13 @@
         <v>-0.44220999999999999</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D43" s="6">
         <v>-0.189</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="6">
         <v>-0.11700000000000001</v>
@@ -2598,7 +2529,7 @@
         <v>-5.8999999999999997E-2</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I43" s="6">
         <v>-0.439</v>
@@ -2627,13 +2558,13 @@
         <v>-0.51597000000000004</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D44" s="6">
         <v>-0.183</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" s="6">
         <v>-7.0999999999999994E-2</v>
@@ -2642,7 +2573,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I44" s="6">
         <v>-0.308</v>
@@ -2671,7 +2602,7 @@
         <v>-0.65085999999999999</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="D45" s="6">
         <v>-0.219</v>
@@ -2686,7 +2617,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I45" s="6">
         <v>-0.34200000000000003</v>
@@ -2715,7 +2646,7 @@
         <v>-0.38579000000000002</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D46" s="6">
         <v>-0.20699999999999999</v>
@@ -2730,7 +2661,7 @@
         <v>-0.108</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I46" s="6">
         <v>-0.35799999999999998</v>
@@ -2759,13 +2690,13 @@
         <v>-0.65175000000000005</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D47" s="6">
         <v>-0.19700000000000001</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F47" s="6">
         <v>-1.2E-2</v>
@@ -2774,7 +2705,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I47" s="6">
         <v>-0.38600000000000001</v>
@@ -2803,13 +2734,13 @@
         <v>-0.34704000000000002</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D48" s="6">
         <v>-0.23</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="6">
         <v>-0.13100000000000001</v>
@@ -2818,7 +2749,7 @@
         <v>-0.10199999999999999</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I48" s="6">
         <v>-0.24399999999999999</v>
@@ -2847,13 +2778,13 @@
         <v>-0.58730000000000004</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D49" s="6">
         <v>-0.219</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F49" s="6">
         <v>-8.7999999999999995E-2</v>
@@ -2862,7 +2793,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I49" s="6">
         <v>-0.379</v>
@@ -2891,13 +2822,13 @@
         <v>-0.21353</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="D50" s="6">
         <v>-8.5999999999999993E-2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="6">
         <v>-6.0999999999999999E-2</v>
@@ -2906,7 +2837,7 @@
         <v>-0.08</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I50" s="6">
         <v>-0.28499999999999998</v>
@@ -2935,13 +2866,13 @@
         <v>-0.78946000000000005</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="D51" s="6">
         <v>-0.14000000000000001</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="6">
         <v>-6.0000000000000001E-3</v>
@@ -2950,7 +2881,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I51" s="6">
         <v>-0.216</v>
@@ -2979,13 +2910,13 @@
         <v>-0.61070000000000002</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="D52" s="6">
         <v>-0.248</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="6">
         <v>-1.7000000000000001E-2</v>
@@ -2994,7 +2925,7 @@
         <v>-6.2E-2</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I52" s="6">
         <v>-0.42399999999999999</v>
@@ -3023,7 +2954,7 @@
         <v>-0.50185000000000002</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D53" s="6">
         <v>-0.24099999999999999</v>
@@ -3038,7 +2969,7 @@
         <v>-6.9000000000000006E-2</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I53" s="6">
         <v>-0.33900000000000002</v>
@@ -3067,13 +2998,13 @@
         <v>-0.62724000000000002</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D54" s="6">
         <v>-0.23100000000000001</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" s="6">
         <v>-3.1E-2</v>
@@ -3082,7 +3013,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I54" s="6">
         <v>-0.373</v>
@@ -3111,13 +3042,13 @@
         <v>-0.21937999999999999</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="D55" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F55" s="6">
         <v>8.1000000000000003E-2</v>
@@ -3126,7 +3057,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I55" s="6">
         <v>-8.5999999999999993E-2</v>
@@ -3155,7 +3086,7 @@
         <v>-0.49118000000000001</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D56" s="6">
         <v>-7.4999999999999997E-2</v>
@@ -3170,7 +3101,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I56" s="6">
         <v>-0.28100000000000003</v>
@@ -3199,7 +3130,7 @@
         <v>-0.53813999999999995</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D57" s="6">
         <v>-0.16600000000000001</v>
@@ -3214,7 +3145,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" s="6">
         <v>-0.31</v>
@@ -3243,7 +3174,7 @@
         <v>-0.57991999999999999</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D58" s="6">
         <v>-0.17899999999999999</v>
@@ -3258,7 +3189,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I58" s="6">
         <v>-0.317</v>
@@ -3287,13 +3218,13 @@
         <v>-0.86197999999999997</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D59" s="6">
         <v>-0.188</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F59" s="6">
         <v>5.0000000000000001E-3</v>
@@ -3302,7 +3233,7 @@
         <v>-0.10100000000000001</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I59" s="6">
         <v>-0.30399999999999999</v>
@@ -3331,7 +3262,7 @@
         <v>-2.7799999999999999E-3</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D60" s="6">
         <v>-8.6999999999999994E-2</v>
@@ -3375,7 +3306,7 @@
         <v>-0.50651000000000002</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D61" s="6">
         <v>-0.26400000000000001</v>
@@ -3390,7 +3321,7 @@
         <v>-9.0999999999999998E-2</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I61" s="6">
         <v>-0.313</v>
@@ -3419,7 +3350,7 @@
         <v>-0.72165000000000001</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D62" s="6">
         <v>-0.25600000000000001</v>
@@ -3434,7 +3365,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I62" s="6">
         <v>-0.39700000000000002</v>
@@ -3463,7 +3394,7 @@
         <v>-0.92459999999999998</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D63" s="6">
         <v>-0.158</v>
@@ -3507,13 +3438,13 @@
         <v>-0.52170000000000005</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="D64" s="6">
         <v>-0.19400000000000001</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F64" s="6">
         <v>-3.1E-2</v>
@@ -3522,7 +3453,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I64" s="6">
         <v>-0.438</v>
@@ -3551,7 +3482,7 @@
         <v>-0.75641999999999998</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="D65" s="6">
         <v>-0.184</v>
@@ -3566,7 +3497,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I65" s="6">
         <v>-0.38600000000000001</v>
@@ -3595,7 +3526,7 @@
         <v>-0.33194000000000001</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D66" s="6">
         <v>-0.10199999999999999</v>
@@ -3610,7 +3541,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I66" s="6">
         <v>-0.20699999999999999</v>
@@ -3639,7 +3570,7 @@
         <v>-5.5140000000000002E-2</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D67" s="6">
         <v>-5.8999999999999997E-2</v>
@@ -3654,7 +3585,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I67" s="6">
         <v>-0.23599999999999999</v>
@@ -3683,13 +3614,13 @@
         <v>-0.25751000000000002</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D68" s="6">
         <v>-0.109</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F68" s="6">
         <v>-5.0999999999999997E-2</v>
@@ -3698,7 +3629,7 @@
         <v>-2.4E-2</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I68" s="6">
         <v>-0.26200000000000001</v>
@@ -3727,7 +3658,7 @@
         <v>-0.33905000000000002</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D69" s="6">
         <v>-0.16800000000000001</v>
@@ -3742,7 +3673,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I69" s="6">
         <v>-0.40600000000000003</v>
@@ -3765,16 +3696,16 @@
     </row>
     <row r="70" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B70" s="6">
         <v>-0.32129999999999997</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E70" s="6">
         <v>-0.04</v>
@@ -3783,13 +3714,13 @@
         <v>21</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H70" s="6">
         <v>-6.3E-2</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3809,31 +3740,31 @@
     </row>
     <row r="71" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B71" s="6">
         <v>-0.45513999999999999</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E71" s="6">
         <v>-0.04</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H71" s="6">
         <v>-7.4999999999999997E-2</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3853,13 +3784,13 @@
     </row>
     <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B72" s="6">
         <v>-0.17862</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>9</v>
@@ -3871,7 +3802,7 @@
         <v>31</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H72" s="6">
         <v>4.0000000000000001E-3</v>
@@ -3897,31 +3828,31 @@
     </row>
     <row r="73" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B73" s="6">
         <v>-0.41498000000000002</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E73" s="6">
         <v>-0.08</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H73" s="6">
         <v>-0.17</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3941,13 +3872,13 @@
     </row>
     <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B74" s="6">
         <v>-0.24104</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>29</v>
@@ -3956,16 +3887,16 @@
         <v>-0.02</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H74" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3985,22 +3916,22 @@
     </row>
     <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B75" s="6">
         <v>-0.43703999999999998</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>12</v>
@@ -4009,7 +3940,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -4029,16 +3960,16 @@
     </row>
     <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B76" s="6">
         <v>-0.63427</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E76" s="6">
         <v>-0.05</v>
@@ -4047,13 +3978,13 @@
         <v>30</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H76" s="6">
         <v>-0.03</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -4073,16 +4004,16 @@
     </row>
     <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B77" s="6">
         <v>-0.27438000000000001</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77" s="6">
         <v>-0.01</v>
@@ -4091,13 +4022,13 @@
         <v>21</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H77" s="6">
         <v>-7.1999999999999995E-2</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -4117,31 +4048,31 @@
     </row>
     <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B78" s="6">
         <v>-0.43391000000000002</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E78" s="6">
         <v>-0.08</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H78" s="6">
         <v>-0.12</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -4161,13 +4092,13 @@
     </row>
     <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B79" s="6">
         <v>-0.17760999999999999</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>9</v>
@@ -4179,13 +4110,13 @@
         <v>31</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H79" s="6">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -4205,31 +4136,31 @@
     </row>
     <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B80" s="6">
         <v>-0.45106000000000002</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E80" s="6">
         <v>-0.16</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H80" s="6">
         <v>-0.14000000000000001</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -4249,13 +4180,13 @@
     </row>
     <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B81" s="6">
         <v>-0.35303000000000001</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>29</v>
@@ -4264,16 +4195,16 @@
         <v>-0.02</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H81" s="6">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -4293,22 +4224,22 @@
     </row>
     <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B82" s="6">
         <v>-0.40656999999999999</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E82" s="6">
         <v>-0.01</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>12</v>
@@ -4317,7 +4248,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -4337,16 +4268,16 @@
     </row>
     <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B83" s="6">
         <v>-0.65678999999999998</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E83" s="6">
         <v>-0.09</v>
@@ -4355,13 +4286,13 @@
         <v>30</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H83" s="6">
         <v>-6.3E-2</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>

--- a/data/raw/PSY_adults.xlsx
+++ b/data/raw/PSY_adults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\Git_META\META\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE17D74-B710-409B-9713-2D1341E02982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7694332B-FD43-405B-AB5A-9279242A2BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -652,8 +652,8 @@
   </sheetPr>
   <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
